--- a/HW/Production/GC-Ultimate PCB Notes.xlsx
+++ b/HW/Production/GC-Ultimate PCB Notes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
   <si>
     <t>#</t>
   </si>
@@ -67,55 +67,55 @@
     <t>C4, C23</t>
   </si>
   <si>
-    <t>2.2uF</t>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>C5, C7, C9, C10</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>C6, C11, C15, C18, C20, C22</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0201_0603Metric</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>C12, C13</t>
+  </si>
+  <si>
+    <t>100nF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>C5, C7, C9, C10</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>C6, C11, C15, C18, C20, C22</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0201_0603Metric</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>C12, C13</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>C14, C16, C21</t>
   </si>
   <si>
     <t>C17</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>C19</t>
   </si>
   <si>
     <t>10uF/10V (20%)</t>
   </si>
   <si>
-    <t>D1, D2, D9, D10</t>
+    <t>D1, D2, D9</t>
   </si>
   <si>
     <t>CUS08F30</t>
@@ -193,6 +193,18 @@
     <t>hhl:SK6805-EC-15</t>
   </si>
   <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>1.3A 2.2uH ±20% 80mΩ</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_1008_2520Metric</t>
+  </si>
+  <si>
+    <t>MIP25202R2MBE</t>
+  </si>
+  <si>
     <t>Q1, Q2</t>
   </si>
   <si>
@@ -238,21 +250,21 @@
     <t>Resistor_SMD:R_0201_0603Metric</t>
   </si>
   <si>
-    <t>R3, R5, R15, R16, R17, R20, R29, R30, R31, R33, R34</t>
+    <t>R4, R13, R14, R36, R37, R38</t>
+  </si>
+  <si>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>R5, R15, R16, R17, R20, R29, R30, R31, R33, R34</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R4, R13, R14, R36, R37, R38</t>
-  </si>
-  <si>
-    <t>75k</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
     <t>R6, R7</t>
   </si>
   <si>
@@ -346,13 +358,13 @@
     <t>U4</t>
   </si>
   <si>
-    <t>XC6222</t>
-  </si>
-  <si>
-    <t>hhl:SOT-89-5</t>
-  </si>
-  <si>
-    <t>XC6222B331PR-G</t>
+    <t>TPS630001RCR</t>
+  </si>
+  <si>
+    <t>hhl:VREG_V62_16624-01YE</t>
+  </si>
+  <si>
+    <t>TPS63001DRCR</t>
   </si>
   <si>
     <t>U5, U10</t>
@@ -613,9 +625,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3810000" cy="3457575"/>
     <xdr:pic>
@@ -878,6 +890,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="24.25"/>
     <col customWidth="1" min="3" max="3" width="4.0"/>
+    <col customWidth="1" min="4" max="4" width="19.25"/>
     <col customWidth="1" min="6" max="6" width="39.88"/>
     <col customWidth="1" min="7" max="7" width="21.13"/>
   </cols>
@@ -1038,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1046,7 +1059,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>3.0</v>
@@ -1063,13 +1076,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
@@ -1089,7 +1102,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1100,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1254,7 +1267,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>60</v>
@@ -1263,7 +1276,7 @@
         <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1271,16 +1284,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>2.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
@@ -1291,19 +1304,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1">
         <v>2.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -1311,19 +1324,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -1331,34 +1344,36 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1367,16 +1382,16 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1">
         <v>6.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1385,16 +1400,16 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>27.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -1402,16 +1417,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29" s="1">
-        <v>330.0</v>
+        <v>27.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1419,16 +1434,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0</v>
+        <v>330.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -1436,16 +1451,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1">
         <v>2.0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>84</v>
+      <c r="D31" s="1">
+        <v>0.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -1453,16 +1468,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1">
         <v>2.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -1470,20 +1485,18 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
@@ -1493,7 +1506,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>92</v>
@@ -1513,7 +1526,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>96</v>
@@ -1542,7 +1555,7 @@
         <v>101</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -1550,19 +1563,19 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1583,19 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1593,7 +1606,7 @@
         <v>109</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>110</v>
@@ -1613,7 +1626,7 @@
         <v>113</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>114</v>
@@ -1653,7 +1666,7 @@
         <v>121</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>122</v>
@@ -1662,7 +1675,7 @@
         <v>123</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -1670,19 +1683,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1">
         <v>1.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -1690,19 +1703,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1">
         <v>1.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -1710,19 +1723,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46">
@@ -1730,19 +1743,19 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1">
         <v>1.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47">
@@ -1766,12 +1779,24 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
@@ -1883,7 +1908,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -1903,16 +1928,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1945,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -1940,19 +1965,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2006,19 +2031,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -2026,16 +2051,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2067,21 +2092,21 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -2098,41 +2123,41 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -2149,27 +2174,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2179,23 +2204,23 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/HW/Production/GC-Ultimate PCB Notes.xlsx
+++ b/HW/Production/GC-Ultimate PCB Notes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
   <si>
     <t>#</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>C6, C11, C15, C18, C20, C22</t>
+    <t>C6, C11, C15, C18, C20, C22, C24</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0201_0603Metric</t>
@@ -115,7 +115,7 @@
     <t>10uF/10V (20%)</t>
   </si>
   <si>
-    <t>D1, D2, D9</t>
+    <t>D1, D2, D9, D10</t>
   </si>
   <si>
     <t>CUS08F30</t>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Resistor_SMD:R_0201_0603Metric</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
   <si>
     <t>R4, R13, R14, R36, R37, R38</t>
@@ -888,11 +891,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.25"/>
+    <col customWidth="1" min="1" max="1" width="4.0"/>
+    <col customWidth="1" min="2" max="2" width="18.38"/>
     <col customWidth="1" min="3" max="3" width="4.0"/>
-    <col customWidth="1" min="4" max="4" width="19.25"/>
-    <col customWidth="1" min="6" max="6" width="39.88"/>
-    <col customWidth="1" min="7" max="7" width="21.13"/>
+    <col customWidth="1" min="4" max="4" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="24.0"/>
+    <col customWidth="1" min="7" max="7" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -917,6 +921,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -951,6 +958,7 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -968,6 +976,7 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -985,6 +994,7 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -1002,6 +1012,7 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -1011,7 +1022,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1019,6 +1030,7 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -1036,6 +1048,7 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -1053,6 +1066,7 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -1070,6 +1084,7 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1087,6 +1102,7 @@
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -1104,6 +1120,7 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -1113,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1124,6 +1141,7 @@
       <c r="G13" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -1144,6 +1162,7 @@
       <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -1161,6 +1180,7 @@
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -1178,6 +1198,7 @@
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -1198,6 +1219,7 @@
       <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -1218,6 +1240,7 @@
       <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -1238,6 +1261,7 @@
       <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -1258,6 +1282,7 @@
       <c r="G20" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -1278,6 +1303,7 @@
       <c r="G21" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -1298,6 +1324,7 @@
       <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -1318,6 +1345,7 @@
       <c r="G23" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
@@ -1338,6 +1366,7 @@
       <c r="G24" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="H24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -1358,6 +1387,7 @@
       <c r="G25" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
@@ -1376,6 +1406,7 @@
         <v>77</v>
       </c>
       <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1">
@@ -1385,49 +1416,52 @@
         <v>78</v>
       </c>
       <c r="C27" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>27.0</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1">
@@ -1437,31 +1471,33 @@
         <v>84</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" s="1">
-        <v>330.0</v>
+        <v>27.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
@@ -1473,69 +1509,70 @@
       <c r="C32" s="1">
         <v>2.0</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>88</v>
+      <c r="D32" s="1">
+        <v>0.0</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -1543,19 +1580,19 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -1563,59 +1600,61 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -1623,188 +1662,210 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1">
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="C49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
@@ -1813,6 +1874,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
@@ -1908,7 +1970,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -1928,7 +1990,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
@@ -1945,19 +2007,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -1965,19 +2027,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2031,19 +2093,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -2051,16 +2113,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2092,21 +2154,21 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -2123,41 +2185,41 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -2174,27 +2236,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2204,23 +2266,23 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/HW/Production/GC-Ultimate PCB Notes.xlsx
+++ b/HW/Production/GC-Ultimate PCB Notes.xlsx
@@ -5,8 +5,7 @@
   <sheets>
     <sheet state="visible" name="Main PCB BOM" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="SubStick PCB BOM" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="USBC BOM" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="PCB Production Notes" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="PCB Production Notes" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -40,7 +39,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>Battery</t>
+    <t>Battery Connector</t>
   </si>
   <si>
     <t>Connector_JST:JST_PH_B2B-PH-K_1x02_P2.00mm_Vertical</t>
@@ -154,16 +153,13 @@
     <t>Fuse:Fuse_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
   </si>
   <si>
-    <t>J5, J6, J7, J8, J9, J10, J11, J12</t>
-  </si>
-  <si>
-    <t>Conn_01x01_Pin</t>
-  </si>
-  <si>
-    <t>hhl:YZ72015053P-01</t>
-  </si>
-  <si>
-    <t>YZ72015053P-01</t>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>UJ31-CH-G1-SMT-TR</t>
+  </si>
+  <si>
+    <t>hhl:CUI_UJ31-CH-G1-SMT-TR</t>
   </si>
   <si>
     <t>J13</t>
@@ -175,15 +171,6 @@
     <t>hhl:5034800640</t>
   </si>
   <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>USB4105-GF-A-060</t>
-  </si>
-  <si>
-    <t>hhl:GCT_USB4105-GF-A-060</t>
-  </si>
-  <si>
     <t>L1, L2, L3, L4</t>
   </si>
   <si>
@@ -283,7 +270,7 @@
     <t>R21, R22</t>
   </si>
   <si>
-    <t>5.1k</t>
+    <t>5.1kohm</t>
   </si>
   <si>
     <t>R32, R35</t>
@@ -466,18 +453,6 @@
     <t>U1, U2</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>UJ31-CH-G1-SMT-TR</t>
-  </si>
-  <si>
-    <t>hhl:CUI_UJ31-CH-G1-SMT-TR</t>
-  </si>
-  <si>
-    <t>5.1kohm</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -485,9 +460,6 @@
   </si>
   <si>
     <t>Trigger</t>
-  </si>
-  <si>
-    <t>USBC</t>
   </si>
   <si>
     <t>Layers</t>
@@ -584,12 +556,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -620,10 +595,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1084,6 +1055,9 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11">
@@ -1208,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>47</v>
@@ -1217,7 +1191,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1226,19 +1200,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1247,19 +1221,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -1268,19 +1242,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -1292,7 +1266,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>60</v>
@@ -1301,7 +1275,7 @@
         <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -1310,16 +1284,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
@@ -1331,19 +1305,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -1352,19 +1326,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -1373,20 +1347,18 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26">
@@ -1394,16 +1366,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1413,13 +1385,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>77</v>
@@ -1432,16 +1404,16 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -1450,16 +1422,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>27.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -1468,16 +1440,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1">
-        <v>27.0</v>
+        <v>330.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -1486,16 +1458,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" s="1">
-        <v>330.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -1504,13 +1476,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1">
         <v>2.0</v>
       </c>
-      <c r="D32" s="1">
-        <v>0.0</v>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>77</v>
@@ -1522,16 +1494,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1541,18 +1513,20 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35">
@@ -1563,7 +1537,7 @@
         <v>92</v>
       </c>
       <c r="C35" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>93</v>
@@ -1583,7 +1557,7 @@
         <v>96</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>97</v>
@@ -1612,7 +1586,7 @@
         <v>102</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -1621,19 +1595,19 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -1642,19 +1616,19 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -1665,7 +1639,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>111</v>
@@ -1686,7 +1660,7 @@
         <v>114</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>115</v>
@@ -1728,7 +1702,7 @@
         <v>122</v>
       </c>
       <c r="C43" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>123</v>
@@ -1737,7 +1711,7 @@
         <v>124</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -1746,19 +1720,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -1767,19 +1741,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H45" s="1"/>
     </row>
@@ -1788,19 +1762,19 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -1809,19 +1783,19 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -1847,24 +1821,12 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50">
@@ -1970,19 +1932,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1990,16 +1952,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2007,19 +1969,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -2027,19 +1989,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2048,89 +2010,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="3.25"/>
-    <col customWidth="1" min="3" max="3" width="3.63"/>
-    <col customWidth="1" min="6" max="6" width="17.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2154,21 +2033,18 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -2179,110 +2055,95 @@
       <c r="D2" s="1">
         <v>2.0</v>
       </c>
-      <c r="E2" s="1">
-        <v>2.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>170</v>
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/HW/Production/GC-Ultimate PCB Notes.xlsx
+++ b/HW/Production/GC-Ultimate PCB Notes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="169">
   <si>
     <t>#</t>
   </si>
@@ -39,7 +39,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>Battery Connector</t>
+    <t>Battery</t>
   </si>
   <si>
     <t>Connector_JST:JST_PH_B2B-PH-K_1x02_P2.00mm_Vertical</t>
@@ -324,6 +324,15 @@
     <t>hhl:TS09</t>
   </si>
   <si>
+    <t>SW15, SW16</t>
+  </si>
+  <si>
+    <t>1TS026A-1000-0550</t>
+  </si>
+  <si>
+    <t>hhl:1TS026A-1000-0550</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -508,6 +517,9 @@
   </si>
   <si>
     <t>10x38x30mm MAX</t>
+  </si>
+  <si>
+    <t>Motor adhesive can be applied to the circle</t>
   </si>
 </sst>
 </file>
@@ -598,15 +610,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3810000" cy="3457575"/>
+    <xdr:ext cx="3552825" cy="3238500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -626,19 +638,47 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3762375" cy="3762375"/>
+    <xdr:ext cx="3171825" cy="3171825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4562475" cy="4029075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1055,9 +1095,7 @@
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11">
@@ -1598,7 +1636,7 @@
         <v>103</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>104</v>
@@ -1619,7 +1657,7 @@
         <v>106</v>
       </c>
       <c r="C39" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>107</v>
@@ -1628,7 +1666,7 @@
         <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1636,19 +1674,19 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -1657,19 +1695,19 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -1678,19 +1716,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -1699,19 +1737,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -1795,7 +1833,7 @@
         <v>136</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -1804,29 +1842,41 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="C49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50">
@@ -1932,7 +1982,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -1952,7 +2002,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
@@ -1969,7 +2019,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -1989,19 +2039,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2033,18 +2083,18 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -2058,35 +2108,35 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -2100,24 +2150,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="26.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2127,23 +2177,28 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
